--- a/Code/Results/Cases/Case_0_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_164/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01962606456504545</v>
+        <v>0.006403796807923356</v>
       </c>
       <c r="D2">
-        <v>0.1364521209963243</v>
+        <v>0.2301108526566651</v>
       </c>
       <c r="E2">
-        <v>0.1542679940426304</v>
+        <v>0.1733927365998404</v>
       </c>
       <c r="F2">
-        <v>1.333885572714649</v>
+        <v>1.119256496137453</v>
       </c>
       <c r="G2">
-        <v>1.052166218488665</v>
+        <v>0.6172754033869978</v>
       </c>
       <c r="H2">
-        <v>0.5654695191386736</v>
+        <v>0.6451706849114487</v>
       </c>
       <c r="I2">
-        <v>0.8002792359095849</v>
+        <v>0.5624574055654961</v>
       </c>
       <c r="J2">
-        <v>0.2121059360334812</v>
+        <v>0.1800749562410715</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.367321455222509</v>
+        <v>2.506829514151605</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0170362627726135</v>
+        <v>0.005607891203307958</v>
       </c>
       <c r="D3">
-        <v>0.1261250233169449</v>
+        <v>0.2288708407612177</v>
       </c>
       <c r="E3">
-        <v>0.1383647276401199</v>
+        <v>0.1704818582525682</v>
       </c>
       <c r="F3">
-        <v>1.179329685780743</v>
+        <v>1.086219363513223</v>
       </c>
       <c r="G3">
-        <v>0.9186100593240241</v>
+        <v>0.5855465827597044</v>
       </c>
       <c r="H3">
-        <v>0.5076915398488211</v>
+        <v>0.6344879103896801</v>
       </c>
       <c r="I3">
-        <v>0.7027830218377034</v>
+        <v>0.5403325584106256</v>
       </c>
       <c r="J3">
-        <v>0.1875022668461312</v>
+        <v>0.1749525151810474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.962819850401189</v>
+        <v>2.416823902178777</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01545375050793396</v>
+        <v>0.005117407016410169</v>
       </c>
       <c r="D4">
-        <v>0.1199561620910643</v>
+        <v>0.228207670226908</v>
       </c>
       <c r="E4">
-        <v>0.1288100020272722</v>
+        <v>0.1687872790564455</v>
       </c>
       <c r="F4">
-        <v>1.08614270720598</v>
+        <v>1.066580177476183</v>
       </c>
       <c r="G4">
-        <v>0.8378786097029831</v>
+        <v>0.5664367015796472</v>
       </c>
       <c r="H4">
-        <v>0.4729719236216994</v>
+        <v>0.6282672455485283</v>
       </c>
       <c r="I4">
-        <v>0.6439081385830718</v>
+        <v>0.5270823313488435</v>
       </c>
       <c r="J4">
-        <v>0.172687084530331</v>
+        <v>0.1719137970433167</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.718720740370486</v>
+        <v>2.363042203959708</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01481039683953966</v>
+        <v>0.004917077860174146</v>
       </c>
       <c r="D5">
-        <v>0.1174827783791841</v>
+        <v>0.2279621468697002</v>
       </c>
       <c r="E5">
-        <v>0.1249647294369218</v>
+        <v>0.1681200324150822</v>
       </c>
       <c r="F5">
-        <v>1.048557728226314</v>
+        <v>1.058739344460022</v>
       </c>
       <c r="G5">
-        <v>0.8052652632513286</v>
+        <v>0.5587425543045441</v>
       </c>
       <c r="H5">
-        <v>0.4589976515168104</v>
+        <v>0.6258174501459877</v>
       </c>
       <c r="I5">
-        <v>0.6201395372169216</v>
+        <v>0.5217667888828004</v>
       </c>
       <c r="J5">
-        <v>0.1667160712184383</v>
+        <v>0.1707022290642115</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.620214462438582</v>
+        <v>2.341498059993597</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01470365009149077</v>
+        <v>0.004883785960334563</v>
       </c>
       <c r="D6">
-        <v>0.1170744414884055</v>
+        <v>0.2279228720738118</v>
       </c>
       <c r="E6">
-        <v>0.1243290207955141</v>
+        <v>0.1680106442374765</v>
       </c>
       <c r="F6">
-        <v>1.042339149849525</v>
+        <v>1.0574471799641</v>
       </c>
       <c r="G6">
-        <v>0.7998661060184986</v>
+        <v>0.557470575568999</v>
       </c>
       <c r="H6">
-        <v>0.4566873119653394</v>
+        <v>0.6254158088869985</v>
       </c>
       <c r="I6">
-        <v>0.616205566792523</v>
+        <v>0.5208892200425694</v>
       </c>
       <c r="J6">
-        <v>0.165728395839146</v>
+        <v>0.1705026626183823</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.603912923378459</v>
+        <v>2.337943149268625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01544506830616399</v>
+        <v>0.005114707143636821</v>
       </c>
       <c r="D7">
-        <v>0.1199226448354764</v>
+        <v>0.2282042588655742</v>
       </c>
       <c r="E7">
-        <v>0.1287579532146168</v>
+        <v>0.168778185967156</v>
       </c>
       <c r="F7">
-        <v>1.085634298140505</v>
+        <v>1.066473776248671</v>
       </c>
       <c r="G7">
-        <v>0.837437663449478</v>
+        <v>0.5663325581709557</v>
       </c>
       <c r="H7">
-        <v>0.4727827764820063</v>
+        <v>0.6282338618372876</v>
       </c>
       <c r="I7">
-        <v>0.6435867144619962</v>
+        <v>0.5270103039531975</v>
       </c>
       <c r="J7">
-        <v>0.1726062979045864</v>
+        <v>0.1718973492214744</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.717388474901838</v>
+        <v>2.36275014500913</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01873127590603474</v>
+        <v>0.006129739967747128</v>
       </c>
       <c r="D8">
-        <v>0.1328539086680109</v>
+        <v>0.229662932052193</v>
       </c>
       <c r="E8">
-        <v>0.1487382140461762</v>
+        <v>0.1723698189763212</v>
       </c>
       <c r="F8">
-        <v>1.280214222201991</v>
+        <v>1.107731204184631</v>
       </c>
       <c r="G8">
-        <v>1.005830380143067</v>
+        <v>0.6062580231741208</v>
       </c>
       <c r="H8">
-        <v>0.5453807881734463</v>
+        <v>0.6414170012355527</v>
       </c>
       <c r="I8">
-        <v>0.7664418244422038</v>
+        <v>0.5547592695329868</v>
       </c>
       <c r="J8">
-        <v>0.2035577038426553</v>
+        <v>0.1782866114388284</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.226897329356063</v>
+        <v>2.475487718664994</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02525488195591663</v>
+        <v>0.00810613374337521</v>
       </c>
       <c r="D9">
-        <v>0.1597121884054076</v>
+        <v>0.2333016362271678</v>
       </c>
       <c r="E9">
-        <v>0.1898015697378241</v>
+        <v>0.1801494517381954</v>
       </c>
       <c r="F9">
-        <v>1.677350818635688</v>
+        <v>1.19377010631348</v>
       </c>
       <c r="G9">
-        <v>1.347836228098117</v>
+        <v>0.6875148270817135</v>
       </c>
       <c r="H9">
-        <v>0.6945242645959979</v>
+        <v>0.6699565692537988</v>
       </c>
       <c r="I9">
-        <v>1.01642636797969</v>
+        <v>0.6118365369392507</v>
       </c>
       <c r="J9">
-        <v>0.2669096311768726</v>
+        <v>0.1916635588981563</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.265110199506807</v>
+        <v>2.708356419458369</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03012429179833731</v>
+        <v>0.00954995676701742</v>
       </c>
       <c r="D10">
-        <v>0.1805635264906584</v>
+        <v>0.2364487660970838</v>
       </c>
       <c r="E10">
-        <v>0.2214454328505155</v>
+        <v>0.1863161131496156</v>
       </c>
       <c r="F10">
-        <v>1.981631596224886</v>
+        <v>1.260133648751889</v>
       </c>
       <c r="G10">
-        <v>1.60885702092321</v>
+        <v>0.7490460878953797</v>
       </c>
       <c r="H10">
-        <v>0.8094125914019799</v>
+        <v>0.6925673311477283</v>
       </c>
       <c r="I10">
-        <v>1.207472914933078</v>
+        <v>0.6554091411254745</v>
       </c>
       <c r="J10">
-        <v>0.3155930331530925</v>
+        <v>0.2020134014545647</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.059606198119809</v>
+        <v>2.886696899377966</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03236286667690536</v>
+        <v>0.010205083468243</v>
       </c>
       <c r="D11">
-        <v>0.1903419024117312</v>
+        <v>0.2379832533827795</v>
       </c>
       <c r="E11">
-        <v>0.2362412930696252</v>
+        <v>0.1892198975436727</v>
       </c>
       <c r="F11">
-        <v>2.123510823174229</v>
+        <v>1.291013430937269</v>
       </c>
       <c r="G11">
-        <v>1.730347411152792</v>
+        <v>0.7774419290807657</v>
       </c>
       <c r="H11">
-        <v>0.8631213942634872</v>
+        <v>0.7032114214600824</v>
       </c>
       <c r="I11">
-        <v>1.296442731446334</v>
+        <v>0.6755907234695968</v>
       </c>
       <c r="J11">
-        <v>0.3383321758223872</v>
+        <v>0.2068362859216393</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.429869467823607</v>
+        <v>2.969418359926237</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03321452804948422</v>
+        <v>0.01045292532590736</v>
       </c>
       <c r="D12">
-        <v>0.1940913605941006</v>
+        <v>0.2385790925782914</v>
       </c>
       <c r="E12">
-        <v>0.2419090570114264</v>
+        <v>0.190333676672374</v>
       </c>
       <c r="F12">
-        <v>2.177801897100423</v>
+        <v>1.30280635855857</v>
       </c>
       <c r="G12">
-        <v>1.776805665613978</v>
+        <v>0.788253254152977</v>
       </c>
       <c r="H12">
-        <v>0.8836938801844951</v>
+        <v>0.70729361931825</v>
       </c>
       <c r="I12">
-        <v>1.330471298010607</v>
+        <v>0.6832849390733458</v>
       </c>
       <c r="J12">
-        <v>0.3470398068302103</v>
+        <v>0.2086791464770528</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.571527449186078</v>
+        <v>3.000972727489909</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03303092147913134</v>
+        <v>0.01039955883150157</v>
       </c>
       <c r="D13">
-        <v>0.1932816997921378</v>
+        <v>0.23845011181335</v>
       </c>
       <c r="E13">
-        <v>0.2406853940052187</v>
+        <v>0.1900931736462965</v>
       </c>
       <c r="F13">
-        <v>2.166083104807356</v>
+        <v>1.300262116966152</v>
       </c>
       <c r="G13">
-        <v>1.766778961078955</v>
+        <v>0.7859222396496364</v>
       </c>
       <c r="H13">
-        <v>0.8792523695326508</v>
+        <v>0.7064121542274222</v>
       </c>
       <c r="I13">
-        <v>1.323126924831712</v>
+        <v>0.6816255428247189</v>
       </c>
       <c r="J13">
-        <v>0.3451599611294114</v>
+        <v>0.208281517167265</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.540951523195531</v>
+        <v>2.994166714265816</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03243285043988209</v>
+        <v>0.01022547838216781</v>
       </c>
       <c r="D14">
-        <v>0.1906494116751389</v>
+        <v>0.2380319777263509</v>
       </c>
       <c r="E14">
-        <v>0.2367062390027854</v>
+        <v>0.1893112446014413</v>
       </c>
       <c r="F14">
-        <v>2.127965663838353</v>
+        <v>1.291981648967251</v>
       </c>
       <c r="G14">
-        <v>1.734160146151737</v>
+        <v>0.7783302109860415</v>
       </c>
       <c r="H14">
-        <v>0.8648090535184281</v>
+        <v>0.7035462340550964</v>
       </c>
       <c r="I14">
-        <v>1.299235266156799</v>
+        <v>0.6762226907580526</v>
       </c>
       <c r="J14">
-        <v>0.3390465474962525</v>
+        <v>0.206987567436812</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.441493683473311</v>
+        <v>2.97200975396953</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03206704882557432</v>
+        <v>0.0101188177875926</v>
       </c>
       <c r="D15">
-        <v>0.1890432671141582</v>
+        <v>0.2377777802144863</v>
       </c>
       <c r="E15">
-        <v>0.2342775689435044</v>
+        <v>0.1888341372831306</v>
       </c>
       <c r="F15">
-        <v>2.104693235455983</v>
+        <v>1.286922574371943</v>
       </c>
       <c r="G15">
-        <v>1.71424088707974</v>
+        <v>0.7736874903794444</v>
       </c>
       <c r="H15">
-        <v>0.8559934173960073</v>
+        <v>0.7017974830692708</v>
       </c>
       <c r="I15">
-        <v>1.284646190947981</v>
+        <v>0.672920048056767</v>
       </c>
       <c r="J15">
-        <v>0.3353148745571843</v>
+        <v>0.2061971411048233</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.380766863922872</v>
+        <v>2.958467881712124</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02997851697047338</v>
+        <v>0.009507109026550609</v>
       </c>
       <c r="D16">
-        <v>0.1799307554861116</v>
+        <v>0.2363505509287052</v>
       </c>
       <c r="E16">
-        <v>0.2204871600958214</v>
+        <v>0.186128327652284</v>
       </c>
       <c r="F16">
-        <v>1.972434665343982</v>
+        <v>1.258129489543307</v>
       </c>
       <c r="G16">
-        <v>1.600977436909545</v>
+        <v>0.7471985191324961</v>
       </c>
       <c r="H16">
-        <v>0.8059338722566451</v>
+        <v>0.6918789240660033</v>
       </c>
       <c r="I16">
-        <v>1.201703448159677</v>
+        <v>0.6540974831537056</v>
       </c>
       <c r="J16">
-        <v>0.3141198699824344</v>
+        <v>0.2017005264407459</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.035601217690555</v>
+        <v>2.881322956879842</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02870368295236858</v>
+        <v>0.009131416757433897</v>
       </c>
       <c r="D17">
-        <v>0.1744186258096221</v>
+        <v>0.2355013134694701</v>
       </c>
       <c r="E17">
-        <v>0.2121348224915707</v>
+        <v>0.1844936458195718</v>
       </c>
       <c r="F17">
-        <v>1.892230289843212</v>
+        <v>1.240642838012079</v>
       </c>
       <c r="G17">
-        <v>1.5322373793324</v>
+        <v>0.7310522582826877</v>
       </c>
       <c r="H17">
-        <v>0.7756121274908594</v>
+        <v>0.6858859766670378</v>
       </c>
       <c r="I17">
-        <v>1.151376939207069</v>
+        <v>0.6426427683739604</v>
       </c>
       <c r="J17">
-        <v>0.3012771522131743</v>
+        <v>0.1989714068215704</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.826238160428886</v>
+        <v>2.834405460557036</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02797260212992114</v>
+        <v>0.008915170754740132</v>
       </c>
       <c r="D18">
-        <v>0.1712754834084222</v>
+        <v>0.2350225360989384</v>
       </c>
       <c r="E18">
-        <v>0.2073680433204075</v>
+        <v>0.1835626944836406</v>
       </c>
       <c r="F18">
-        <v>1.846420208313901</v>
+        <v>1.230649981622719</v>
       </c>
       <c r="G18">
-        <v>1.492955121031002</v>
+        <v>0.7218034608710298</v>
       </c>
       <c r="H18">
-        <v>0.7583062113547498</v>
+        <v>0.6824727215651478</v>
       </c>
       <c r="I18">
-        <v>1.122621849976483</v>
+        <v>0.6360882161767165</v>
       </c>
       <c r="J18">
-        <v>0.2939454065041502</v>
+        <v>0.1974124816885876</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.706638978077365</v>
+        <v>2.807569719244043</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02772542620409268</v>
+        <v>0.008841926462061167</v>
       </c>
       <c r="D19">
-        <v>0.1702158264432683</v>
+        <v>0.2348620939318664</v>
       </c>
       <c r="E19">
-        <v>0.2057602839111468</v>
+        <v>0.1832490829698159</v>
       </c>
       <c r="F19">
-        <v>1.830962955427538</v>
+        <v>1.227277733275642</v>
       </c>
       <c r="G19">
-        <v>1.479697005039355</v>
+        <v>0.71867851532906</v>
       </c>
       <c r="H19">
-        <v>0.752469039158882</v>
+        <v>0.6813228456936429</v>
       </c>
       <c r="I19">
-        <v>1.112917548920379</v>
+        <v>0.6338747763727355</v>
       </c>
       <c r="J19">
-        <v>0.2914721224491217</v>
+        <v>0.1968865085887757</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.666280650396061</v>
+        <v>2.798509342108332</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02883916250151941</v>
+        <v>0.009171426162701835</v>
       </c>
       <c r="D20">
-        <v>0.1750025460163869</v>
+        <v>0.2355907144349771</v>
       </c>
       <c r="E20">
-        <v>0.2130200359753758</v>
+        <v>0.1846667005584877</v>
       </c>
       <c r="F20">
-        <v>1.900734458581297</v>
+        <v>1.242497593576786</v>
       </c>
       <c r="G20">
-        <v>1.539528067406422</v>
+        <v>0.7327671101404576</v>
       </c>
       <c r="H20">
-        <v>0.7788258418169107</v>
+        <v>0.6865204453715421</v>
       </c>
       <c r="I20">
-        <v>1.15671418803835</v>
+        <v>0.6438586334459728</v>
       </c>
       <c r="J20">
-        <v>0.3026385040368353</v>
+        <v>0.1992608089660024</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.848439033041871</v>
+        <v>2.839384384731602</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03260840596632875</v>
+        <v>0.0102766165502004</v>
       </c>
       <c r="D21">
-        <v>0.1914212762422807</v>
+        <v>0.2381543934124863</v>
       </c>
       <c r="E21">
-        <v>0.2378731910663703</v>
+        <v>0.1895405312281824</v>
       </c>
       <c r="F21">
-        <v>2.139145795951109</v>
+        <v>1.294411123941288</v>
       </c>
       <c r="G21">
-        <v>1.743728322278542</v>
+        <v>0.7805585862729743</v>
       </c>
       <c r="H21">
-        <v>0.8690448297481908</v>
+        <v>0.7043866263950349</v>
       </c>
       <c r="I21">
-        <v>1.306243315316138</v>
+        <v>0.6778082303904114</v>
       </c>
       <c r="J21">
-        <v>0.3408394802567472</v>
+        <v>0.2073671826046279</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.470666099668108</v>
+        <v>2.978511557254819</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03509522257343178</v>
+        <v>0.01099752129009346</v>
       </c>
       <c r="D22">
-        <v>0.2024258483466213</v>
+        <v>0.2399159389032235</v>
       </c>
       <c r="E22">
-        <v>0.2544982658880599</v>
+        <v>0.1928085117554161</v>
       </c>
       <c r="F22">
-        <v>2.298287342000179</v>
+        <v>1.328919187989868</v>
       </c>
       <c r="G22">
-        <v>1.879852782557208</v>
+        <v>0.8121337845769574</v>
       </c>
       <c r="H22">
-        <v>0.9293868558115719</v>
+        <v>0.7163634517996229</v>
       </c>
       <c r="I22">
-        <v>1.405959138763663</v>
+        <v>0.7002987435781591</v>
       </c>
       <c r="J22">
-        <v>0.3663764915064149</v>
+        <v>0.2127615894428487</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.885857323427615</v>
+        <v>3.070777365247636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03376561426898661</v>
+        <v>0.01061288889845002</v>
       </c>
       <c r="D23">
-        <v>0.1965258504412901</v>
+        <v>0.2389679055618643</v>
       </c>
       <c r="E23">
-        <v>0.2455876170003037</v>
+        <v>0.1910567634459568</v>
       </c>
       <c r="F23">
-        <v>2.213022409854574</v>
+        <v>1.310448518602939</v>
       </c>
       <c r="G23">
-        <v>1.806936255644786</v>
+        <v>0.795250265159126</v>
       </c>
       <c r="H23">
-        <v>0.8970456909072482</v>
+        <v>0.709943727824367</v>
       </c>
       <c r="I23">
-        <v>1.352542232611896</v>
+        <v>0.6882674244892684</v>
       </c>
       <c r="J23">
-        <v>0.3526905985058875</v>
+        <v>0.2098736547896891</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.663419007603295</v>
+        <v>3.02141079105553</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02877790651563572</v>
+        <v>0.009153338706475722</v>
       </c>
       <c r="D24">
-        <v>0.1747384754930863</v>
+        <v>0.2355502667882092</v>
       </c>
       <c r="E24">
-        <v>0.2126197221981556</v>
+        <v>0.1845884349490419</v>
       </c>
       <c r="F24">
-        <v>1.896888792939762</v>
+        <v>1.241658870283558</v>
       </c>
       <c r="G24">
-        <v>1.536231212378453</v>
+        <v>0.7319917200247232</v>
       </c>
       <c r="H24">
-        <v>0.7773725296340501</v>
+        <v>0.6862335018541046</v>
       </c>
       <c r="I24">
-        <v>1.154300665568073</v>
+        <v>0.6433088445505177</v>
       </c>
       <c r="J24">
-        <v>0.3020228766923054</v>
+        <v>0.1991299388575101</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.838399644360379</v>
+        <v>2.837132984039215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02347878567643846</v>
+        <v>0.007572937895460541</v>
       </c>
       <c r="D25">
-        <v>0.1522656025071853</v>
+        <v>0.2322340231463187</v>
       </c>
       <c r="E25">
-        <v>0.1784591592642784</v>
+        <v>0.1779658061177258</v>
       </c>
       <c r="F25">
-        <v>1.567951977915399</v>
+        <v>1.169942548261687</v>
       </c>
       <c r="G25">
-        <v>1.253800692465802</v>
+        <v>0.6652128538278816</v>
       </c>
       <c r="H25">
-        <v>0.6533353259632406</v>
+        <v>0.6619476978387411</v>
       </c>
       <c r="I25">
-        <v>0.9476458539821664</v>
+        <v>0.5961090942242038</v>
       </c>
       <c r="J25">
-        <v>0.2494358401917509</v>
+        <v>0.1879534732698005</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.979286828283591</v>
+        <v>2.644090394289606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_164/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006403796807923356</v>
+        <v>0.01962606456515914</v>
       </c>
       <c r="D2">
-        <v>0.2301108526566651</v>
+        <v>0.1364521209964664</v>
       </c>
       <c r="E2">
-        <v>0.1733927365998404</v>
+        <v>0.1542679940426304</v>
       </c>
       <c r="F2">
-        <v>1.119256496137453</v>
+        <v>1.333885572714649</v>
       </c>
       <c r="G2">
-        <v>0.6172754033869978</v>
+        <v>1.052166218488637</v>
       </c>
       <c r="H2">
-        <v>0.6451706849114487</v>
+        <v>0.5654695191386736</v>
       </c>
       <c r="I2">
-        <v>0.5624574055654961</v>
+        <v>0.8002792359095778</v>
       </c>
       <c r="J2">
-        <v>0.1800749562410715</v>
+        <v>0.2121059360334812</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.506829514151605</v>
+        <v>3.367321455222566</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005607891203307958</v>
+        <v>0.01703626277249626</v>
       </c>
       <c r="D3">
-        <v>0.2288708407612177</v>
+        <v>0.1261250233168312</v>
       </c>
       <c r="E3">
-        <v>0.1704818582525682</v>
+        <v>0.1383647276401199</v>
       </c>
       <c r="F3">
-        <v>1.086219363513223</v>
+        <v>1.179329685780729</v>
       </c>
       <c r="G3">
-        <v>0.5855465827597044</v>
+        <v>0.9186100593239956</v>
       </c>
       <c r="H3">
-        <v>0.6344879103896801</v>
+        <v>0.5076915398487074</v>
       </c>
       <c r="I3">
-        <v>0.5403325584106256</v>
+        <v>0.7027830218376963</v>
       </c>
       <c r="J3">
-        <v>0.1749525151810474</v>
+        <v>0.1875022668461881</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.416823902178777</v>
+        <v>2.962819850401161</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.005117407016410169</v>
+        <v>0.01545375050769238</v>
       </c>
       <c r="D4">
-        <v>0.228207670226908</v>
+        <v>0.1199561620909506</v>
       </c>
       <c r="E4">
-        <v>0.1687872790564455</v>
+        <v>0.1288100020272793</v>
       </c>
       <c r="F4">
-        <v>1.066580177476183</v>
+        <v>1.08614270720598</v>
       </c>
       <c r="G4">
-        <v>0.5664367015796472</v>
+        <v>0.8378786097029263</v>
       </c>
       <c r="H4">
-        <v>0.6282672455485283</v>
+        <v>0.4729719236215857</v>
       </c>
       <c r="I4">
-        <v>0.5270823313488435</v>
+        <v>0.6439081385830718</v>
       </c>
       <c r="J4">
-        <v>0.1719137970433167</v>
+        <v>0.1726870845303736</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.363042203959708</v>
+        <v>2.718720740370514</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.004917077860174146</v>
+        <v>0.01481039683967467</v>
       </c>
       <c r="D5">
-        <v>0.2279621468697002</v>
+        <v>0.1174827783791699</v>
       </c>
       <c r="E5">
-        <v>0.1681200324150822</v>
+        <v>0.1249647294369254</v>
       </c>
       <c r="F5">
-        <v>1.058739344460022</v>
+        <v>1.048557728226314</v>
       </c>
       <c r="G5">
-        <v>0.5587425543045441</v>
+        <v>0.8052652632513855</v>
       </c>
       <c r="H5">
-        <v>0.6258174501459877</v>
+        <v>0.4589976515167962</v>
       </c>
       <c r="I5">
-        <v>0.5217667888828004</v>
+        <v>0.6201395372169145</v>
       </c>
       <c r="J5">
-        <v>0.1707022290642115</v>
+        <v>0.1667160712185378</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.341498059993597</v>
+        <v>2.620214462438526</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.004883785960334563</v>
+        <v>0.01470365009160446</v>
       </c>
       <c r="D6">
-        <v>0.2279228720738118</v>
+        <v>0.1170744414885192</v>
       </c>
       <c r="E6">
-        <v>0.1680106442374765</v>
+        <v>0.1243290207954999</v>
       </c>
       <c r="F6">
-        <v>1.0574471799641</v>
+        <v>1.042339149849525</v>
       </c>
       <c r="G6">
-        <v>0.557470575568999</v>
+        <v>0.7998661060184702</v>
       </c>
       <c r="H6">
-        <v>0.6254158088869985</v>
+        <v>0.4566873119652257</v>
       </c>
       <c r="I6">
-        <v>0.5208892200425694</v>
+        <v>0.616205566792523</v>
       </c>
       <c r="J6">
-        <v>0.1705026626183823</v>
+        <v>0.1657283958390252</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.337943149268625</v>
+        <v>2.603912923378402</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.005114707143636821</v>
+        <v>0.01544506830629899</v>
       </c>
       <c r="D7">
-        <v>0.2282042588655742</v>
+        <v>0.1199226448354054</v>
       </c>
       <c r="E7">
-        <v>0.168778185967156</v>
+        <v>0.1287579532146381</v>
       </c>
       <c r="F7">
-        <v>1.066473776248671</v>
+        <v>1.085634298140491</v>
       </c>
       <c r="G7">
-        <v>0.5663325581709557</v>
+        <v>0.8374376634495349</v>
       </c>
       <c r="H7">
-        <v>0.6282338618372876</v>
+        <v>0.47278277648212</v>
       </c>
       <c r="I7">
-        <v>0.5270103039531975</v>
+        <v>0.6435867144619962</v>
       </c>
       <c r="J7">
-        <v>0.1718973492214744</v>
+        <v>0.1726062979045935</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.36275014500913</v>
+        <v>2.717388474901838</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.006129739967747128</v>
+        <v>0.01873127590629764</v>
       </c>
       <c r="D8">
-        <v>0.229662932052193</v>
+        <v>0.1328539086679825</v>
       </c>
       <c r="E8">
-        <v>0.1723698189763212</v>
+        <v>0.1487382140461406</v>
       </c>
       <c r="F8">
-        <v>1.107731204184631</v>
+        <v>1.280214222201991</v>
       </c>
       <c r="G8">
-        <v>0.6062580231741208</v>
+        <v>1.005830380143166</v>
       </c>
       <c r="H8">
-        <v>0.6414170012355527</v>
+        <v>0.5453807881734463</v>
       </c>
       <c r="I8">
-        <v>0.5547592695329868</v>
+        <v>0.7664418244421967</v>
       </c>
       <c r="J8">
-        <v>0.1782866114388284</v>
+        <v>0.2035577038426624</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.475487718664994</v>
+        <v>3.226897329356035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.00810613374337521</v>
+        <v>0.02525488195602321</v>
       </c>
       <c r="D9">
-        <v>0.2333016362271678</v>
+        <v>0.1597121884054928</v>
       </c>
       <c r="E9">
-        <v>0.1801494517381954</v>
+        <v>0.1898015697377957</v>
       </c>
       <c r="F9">
-        <v>1.19377010631348</v>
+        <v>1.677350818635688</v>
       </c>
       <c r="G9">
-        <v>0.6875148270817135</v>
+        <v>1.347836228098174</v>
       </c>
       <c r="H9">
-        <v>0.6699565692537988</v>
+        <v>0.6945242645959979</v>
       </c>
       <c r="I9">
-        <v>0.6118365369392507</v>
+        <v>1.01642636797969</v>
       </c>
       <c r="J9">
-        <v>0.1916635588981563</v>
+        <v>0.2669096311768016</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.708356419458369</v>
+        <v>4.265110199506807</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.00954995676701742</v>
+        <v>0.03012429179844389</v>
       </c>
       <c r="D10">
-        <v>0.2364487660970838</v>
+        <v>0.1805635264906442</v>
       </c>
       <c r="E10">
-        <v>0.1863161131496156</v>
+        <v>0.2214454328505013</v>
       </c>
       <c r="F10">
-        <v>1.260133648751889</v>
+        <v>1.981631596224872</v>
       </c>
       <c r="G10">
-        <v>0.7490460878953797</v>
+        <v>1.608857020923239</v>
       </c>
       <c r="H10">
-        <v>0.6925673311477283</v>
+        <v>0.8094125914020935</v>
       </c>
       <c r="I10">
-        <v>0.6554091411254745</v>
+        <v>1.207472914933092</v>
       </c>
       <c r="J10">
-        <v>0.2020134014545647</v>
+        <v>0.3155930331530499</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.886696899377966</v>
+        <v>5.059606198119752</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.010205083468243</v>
+        <v>0.03236286667702615</v>
       </c>
       <c r="D11">
-        <v>0.2379832533827795</v>
+        <v>0.1903419024117312</v>
       </c>
       <c r="E11">
-        <v>0.1892198975436727</v>
+        <v>0.2362412930696465</v>
       </c>
       <c r="F11">
-        <v>1.291013430937269</v>
+        <v>2.123510823174215</v>
       </c>
       <c r="G11">
-        <v>0.7774419290807657</v>
+        <v>1.730347411152792</v>
       </c>
       <c r="H11">
-        <v>0.7032114214600824</v>
+        <v>0.8631213942633735</v>
       </c>
       <c r="I11">
-        <v>0.6755907234695968</v>
+        <v>1.296442731446348</v>
       </c>
       <c r="J11">
-        <v>0.2068362859216393</v>
+        <v>0.338332175822373</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.969418359926237</v>
+        <v>5.429869467823607</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01045292532590736</v>
+        <v>0.03321452804956238</v>
       </c>
       <c r="D12">
-        <v>0.2385790925782914</v>
+        <v>0.1940913605941006</v>
       </c>
       <c r="E12">
-        <v>0.190333676672374</v>
+        <v>0.2419090570114193</v>
       </c>
       <c r="F12">
-        <v>1.30280635855857</v>
+        <v>2.177801897100409</v>
       </c>
       <c r="G12">
-        <v>0.788253254152977</v>
+        <v>1.776805665613949</v>
       </c>
       <c r="H12">
-        <v>0.70729361931825</v>
+        <v>0.8836938801844951</v>
       </c>
       <c r="I12">
-        <v>0.6832849390733458</v>
+        <v>1.330471298010607</v>
       </c>
       <c r="J12">
-        <v>0.2086791464770528</v>
+        <v>0.3470398068301961</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.000972727489909</v>
+        <v>5.571527449186135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01039955883150157</v>
+        <v>0.03303092147901765</v>
       </c>
       <c r="D13">
-        <v>0.23845011181335</v>
+        <v>0.1932816997923652</v>
       </c>
       <c r="E13">
-        <v>0.1900931736462965</v>
+        <v>0.2406853940051619</v>
       </c>
       <c r="F13">
-        <v>1.300262116966152</v>
+        <v>2.16608310480737</v>
       </c>
       <c r="G13">
-        <v>0.7859222396496364</v>
+        <v>1.766778961078955</v>
       </c>
       <c r="H13">
-        <v>0.7064121542274222</v>
+        <v>0.8792523695325656</v>
       </c>
       <c r="I13">
-        <v>0.6816255428247189</v>
+        <v>1.323126924831712</v>
       </c>
       <c r="J13">
-        <v>0.208281517167265</v>
+        <v>0.3451599611294682</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.994166714265816</v>
+        <v>5.540951523195417</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01022547838216781</v>
+        <v>0.03243285043969024</v>
       </c>
       <c r="D14">
-        <v>0.2380319777263509</v>
+        <v>0.1906494116750537</v>
       </c>
       <c r="E14">
-        <v>0.1893112446014413</v>
+        <v>0.236706239002757</v>
       </c>
       <c r="F14">
-        <v>1.291981648967251</v>
+        <v>2.127965663838381</v>
       </c>
       <c r="G14">
-        <v>0.7783302109860415</v>
+        <v>1.734160146151737</v>
       </c>
       <c r="H14">
-        <v>0.7035462340550964</v>
+        <v>0.8648090535184281</v>
       </c>
       <c r="I14">
-        <v>0.6762226907580526</v>
+        <v>1.299235266156785</v>
       </c>
       <c r="J14">
-        <v>0.206987567436812</v>
+        <v>0.3390465474962241</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.97200975396953</v>
+        <v>5.441493683473425</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0101188177875926</v>
+        <v>0.03206704882546774</v>
       </c>
       <c r="D15">
-        <v>0.2377777802144863</v>
+        <v>0.189043267114144</v>
       </c>
       <c r="E15">
-        <v>0.1888341372831306</v>
+        <v>0.2342775689435186</v>
       </c>
       <c r="F15">
-        <v>1.286922574371943</v>
+        <v>2.104693235455983</v>
       </c>
       <c r="G15">
-        <v>0.7736874903794444</v>
+        <v>1.71424088707974</v>
       </c>
       <c r="H15">
-        <v>0.7017974830692708</v>
+        <v>0.8559934173960073</v>
       </c>
       <c r="I15">
-        <v>0.672920048056767</v>
+        <v>1.284646190947981</v>
       </c>
       <c r="J15">
-        <v>0.2061971411048233</v>
+        <v>0.3353148745571843</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.958467881712124</v>
+        <v>5.380766863922872</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.009507109026550609</v>
+        <v>0.02997851697065101</v>
       </c>
       <c r="D16">
-        <v>0.2363505509287052</v>
+        <v>0.1799307554861258</v>
       </c>
       <c r="E16">
-        <v>0.186128327652284</v>
+        <v>0.2204871600958498</v>
       </c>
       <c r="F16">
-        <v>1.258129489543307</v>
+        <v>1.972434665343982</v>
       </c>
       <c r="G16">
-        <v>0.7471985191324961</v>
+        <v>1.600977436909545</v>
       </c>
       <c r="H16">
-        <v>0.6918789240660033</v>
+        <v>0.8059338722566451</v>
       </c>
       <c r="I16">
-        <v>0.6540974831537056</v>
+        <v>1.201703448159691</v>
       </c>
       <c r="J16">
-        <v>0.2017005264407459</v>
+        <v>0.3141198699823491</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.881322956879842</v>
+        <v>5.035601217690498</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009131416757433897</v>
+        <v>0.02870368295220516</v>
       </c>
       <c r="D17">
-        <v>0.2355013134694701</v>
+        <v>0.1744186258095368</v>
       </c>
       <c r="E17">
-        <v>0.1844936458195718</v>
+        <v>0.2121348224915565</v>
       </c>
       <c r="F17">
-        <v>1.240642838012079</v>
+        <v>1.892230289843212</v>
       </c>
       <c r="G17">
-        <v>0.7310522582826877</v>
+        <v>1.532237379332514</v>
       </c>
       <c r="H17">
-        <v>0.6858859766670378</v>
+        <v>0.7756121274908594</v>
       </c>
       <c r="I17">
-        <v>0.6426427683739604</v>
+        <v>1.151376939207083</v>
       </c>
       <c r="J17">
-        <v>0.1989714068215704</v>
+        <v>0.3012771522132027</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.834405460557036</v>
+        <v>4.826238160428829</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.008915170754740132</v>
+        <v>0.02797260213008457</v>
       </c>
       <c r="D18">
-        <v>0.2350225360989384</v>
+        <v>0.1712754834084222</v>
       </c>
       <c r="E18">
-        <v>0.1835626944836406</v>
+        <v>0.2073680433204217</v>
       </c>
       <c r="F18">
-        <v>1.230649981622719</v>
+        <v>1.846420208313887</v>
       </c>
       <c r="G18">
-        <v>0.7218034608710298</v>
+        <v>1.492955121031116</v>
       </c>
       <c r="H18">
-        <v>0.6824727215651478</v>
+        <v>0.7583062113547498</v>
       </c>
       <c r="I18">
-        <v>0.6360882161767165</v>
+        <v>1.122621849976468</v>
       </c>
       <c r="J18">
-        <v>0.1974124816885876</v>
+        <v>0.2939454065041502</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.807569719244043</v>
+        <v>4.706638978077365</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.008841926462061167</v>
+        <v>0.02772542620421348</v>
       </c>
       <c r="D19">
-        <v>0.2348620939318664</v>
+        <v>0.1702158264431688</v>
       </c>
       <c r="E19">
-        <v>0.1832490829698159</v>
+        <v>0.2057602839111752</v>
       </c>
       <c r="F19">
-        <v>1.227277733275642</v>
+        <v>1.830962955427523</v>
       </c>
       <c r="G19">
-        <v>0.71867851532906</v>
+        <v>1.47969700503927</v>
       </c>
       <c r="H19">
-        <v>0.6813228456936429</v>
+        <v>0.7524690391589957</v>
       </c>
       <c r="I19">
-        <v>0.6338747763727355</v>
+        <v>1.112917548920365</v>
       </c>
       <c r="J19">
-        <v>0.1968865085887757</v>
+        <v>0.2914721224491217</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.798509342108332</v>
+        <v>4.666280650396175</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.009171426162701835</v>
+        <v>0.0288391625016331</v>
       </c>
       <c r="D20">
-        <v>0.2355907144349771</v>
+        <v>0.1750025460162874</v>
       </c>
       <c r="E20">
-        <v>0.1846667005584877</v>
+        <v>0.2130200359753758</v>
       </c>
       <c r="F20">
-        <v>1.242497593576786</v>
+        <v>1.900734458581312</v>
       </c>
       <c r="G20">
-        <v>0.7327671101404576</v>
+        <v>1.539528067406337</v>
       </c>
       <c r="H20">
-        <v>0.6865204453715421</v>
+        <v>0.7788258418169391</v>
       </c>
       <c r="I20">
-        <v>0.6438586334459728</v>
+        <v>1.156714188038336</v>
       </c>
       <c r="J20">
-        <v>0.1992608089660024</v>
+        <v>0.3026385040368353</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.839384384731602</v>
+        <v>4.848439033041814</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0102766165502004</v>
+        <v>0.03260840596662717</v>
       </c>
       <c r="D21">
-        <v>0.2381543934124863</v>
+        <v>0.1914212762422807</v>
       </c>
       <c r="E21">
-        <v>0.1895405312281824</v>
+        <v>0.2378731910663703</v>
       </c>
       <c r="F21">
-        <v>1.294411123941288</v>
+        <v>2.139145795951109</v>
       </c>
       <c r="G21">
-        <v>0.7805585862729743</v>
+        <v>1.743728322278514</v>
       </c>
       <c r="H21">
-        <v>0.7043866263950349</v>
+        <v>0.8690448297481908</v>
       </c>
       <c r="I21">
-        <v>0.6778082303904114</v>
+        <v>1.306243315316124</v>
       </c>
       <c r="J21">
-        <v>0.2073671826046279</v>
+        <v>0.3408394802568608</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.978511557254819</v>
+        <v>5.470666099668108</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01099752129009346</v>
+        <v>0.03509522257343178</v>
       </c>
       <c r="D22">
-        <v>0.2399159389032235</v>
+        <v>0.2024258483466355</v>
       </c>
       <c r="E22">
-        <v>0.1928085117554161</v>
+        <v>0.2544982658880741</v>
       </c>
       <c r="F22">
-        <v>1.328919187989868</v>
+        <v>2.298287342000194</v>
       </c>
       <c r="G22">
-        <v>0.8121337845769574</v>
+        <v>1.879852782557265</v>
       </c>
       <c r="H22">
-        <v>0.7163634517996229</v>
+        <v>0.9293868558114582</v>
       </c>
       <c r="I22">
-        <v>0.7002987435781591</v>
+        <v>1.405959138763649</v>
       </c>
       <c r="J22">
-        <v>0.2127615894428487</v>
+        <v>0.3663764915064576</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.070777365247636</v>
+        <v>5.885857323427615</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01061288889845002</v>
+        <v>0.03376561426905766</v>
       </c>
       <c r="D23">
-        <v>0.2389679055618643</v>
+        <v>0.1965258504414038</v>
       </c>
       <c r="E23">
-        <v>0.1910567634459568</v>
+        <v>0.2455876170003037</v>
       </c>
       <c r="F23">
-        <v>1.310448518602939</v>
+        <v>2.213022409854602</v>
       </c>
       <c r="G23">
-        <v>0.795250265159126</v>
+        <v>1.806936255644757</v>
       </c>
       <c r="H23">
-        <v>0.709943727824367</v>
+        <v>0.8970456909072482</v>
       </c>
       <c r="I23">
-        <v>0.6882674244892684</v>
+        <v>1.352542232611896</v>
       </c>
       <c r="J23">
-        <v>0.2098736547896891</v>
+        <v>0.3526905985059159</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.02141079105553</v>
+        <v>5.663419007603295</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.009153338706475722</v>
+        <v>0.0287779065157423</v>
       </c>
       <c r="D24">
-        <v>0.2355502667882092</v>
+        <v>0.1747384754930863</v>
       </c>
       <c r="E24">
-        <v>0.1845884349490419</v>
+        <v>0.2126197221981627</v>
       </c>
       <c r="F24">
-        <v>1.241658870283558</v>
+        <v>1.896888792939762</v>
       </c>
       <c r="G24">
-        <v>0.7319917200247232</v>
+        <v>1.536231212378425</v>
       </c>
       <c r="H24">
-        <v>0.6862335018541046</v>
+        <v>0.7773725296341638</v>
       </c>
       <c r="I24">
-        <v>0.6433088445505177</v>
+        <v>1.154300665568087</v>
       </c>
       <c r="J24">
-        <v>0.1991299388575101</v>
+        <v>0.3020228766923481</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.837132984039215</v>
+        <v>4.838399644360436</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.007572937895460541</v>
+        <v>0.02347878567628214</v>
       </c>
       <c r="D25">
-        <v>0.2322340231463187</v>
+        <v>0.1522656025071853</v>
       </c>
       <c r="E25">
-        <v>0.1779658061177258</v>
+        <v>0.1784591592642357</v>
       </c>
       <c r="F25">
-        <v>1.169942548261687</v>
+        <v>1.567951977915413</v>
       </c>
       <c r="G25">
-        <v>0.6652128538278816</v>
+        <v>1.253800692465859</v>
       </c>
       <c r="H25">
-        <v>0.6619476978387411</v>
+        <v>0.6533353259633543</v>
       </c>
       <c r="I25">
-        <v>0.5961090942242038</v>
+        <v>0.9476458539821806</v>
       </c>
       <c r="J25">
-        <v>0.1879534732698005</v>
+        <v>0.249435840191822</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.644090394289606</v>
+        <v>3.979286828283534</v>
       </c>
     </row>
   </sheetData>
